--- a/biology/Zoologie/Grande_Grallaire/Grande_Grallaire.xlsx
+++ b/biology/Zoologie/Grande_Grallaire/Grande_Grallaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grallaria excelsa
 La Grande Grallaire (Grallaria excelsa) est une espèce d'oiseaux de la famille des Grallariidae endémique au Venezuela.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est endémique des montagnes du Venezuela. 
 </t>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau vit dans la forêt tropicale humide de montagne avec des sous-bois denses entre 1 700 et 2 300 m d'altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau vit dans la forêt tropicale humide de montagne avec des sous-bois denses entre 1 700 et 2 300 m d'altitude.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 10.2, 2020)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 10.2, 2020) :
 sous-espèce Grallaria excelsa excelsa Berlepsch, 1893 - Ouest du Venezuela
 sous-espèce Grallaria excelsa phelpsi Gilliard, 1939 - Nord du Venezuela</t>
         </is>
